--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6579246694483</v>
+        <v>12.333723</v>
       </c>
       <c r="H2">
-        <v>11.6579246694483</v>
+        <v>37.001169</v>
       </c>
       <c r="I2">
-        <v>0.03689086769336936</v>
+        <v>0.03887240735130859</v>
       </c>
       <c r="J2">
-        <v>0.03689086769336936</v>
+        <v>0.0388724073513086</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>24.32123868082681</v>
+        <v>27.73651207394601</v>
       </c>
       <c r="R2">
-        <v>24.32123868082681</v>
+        <v>249.628608665514</v>
       </c>
       <c r="S2">
-        <v>0.001267876895261196</v>
+        <v>0.001395633794370628</v>
       </c>
       <c r="T2">
-        <v>0.001267876895261196</v>
+        <v>0.001395633794370628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6579246694483</v>
+        <v>12.333723</v>
       </c>
       <c r="H3">
-        <v>11.6579246694483</v>
+        <v>37.001169</v>
       </c>
       <c r="I3">
-        <v>0.03689086769336936</v>
+        <v>0.03887240735130859</v>
       </c>
       <c r="J3">
-        <v>0.03689086769336936</v>
+        <v>0.0388724073513086</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>516.2976377702395</v>
+        <v>546.2613275821391</v>
       </c>
       <c r="R3">
-        <v>516.2976377702395</v>
+        <v>4916.351948239252</v>
       </c>
       <c r="S3">
-        <v>0.02691482348400552</v>
+        <v>0.02748654074812569</v>
       </c>
       <c r="T3">
-        <v>0.02691482348400552</v>
+        <v>0.0274865407481257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6579246694483</v>
+        <v>12.333723</v>
       </c>
       <c r="H4">
-        <v>11.6579246694483</v>
+        <v>37.001169</v>
       </c>
       <c r="I4">
-        <v>0.03689086769336936</v>
+        <v>0.03887240735130859</v>
       </c>
       <c r="J4">
-        <v>0.03689086769336936</v>
+        <v>0.0388724073513086</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>167.0457254252853</v>
+        <v>198.543639485393</v>
       </c>
       <c r="R4">
-        <v>167.0457254252853</v>
+        <v>1786.892755368537</v>
       </c>
       <c r="S4">
-        <v>0.008708167314102644</v>
+        <v>0.009990232808812269</v>
       </c>
       <c r="T4">
-        <v>0.008708167314102644</v>
+        <v>0.009990232808812272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.485676204054</v>
+        <v>301.5732116666666</v>
       </c>
       <c r="H5">
-        <v>301.485676204054</v>
+        <v>904.7196349999999</v>
       </c>
       <c r="I5">
-        <v>0.9540350025967437</v>
+        <v>0.950473488836183</v>
       </c>
       <c r="J5">
-        <v>0.9540350025967437</v>
+        <v>0.9504734888361831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>628.9717336247179</v>
+        <v>678.1884939828121</v>
       </c>
       <c r="R5">
-        <v>628.9717336247179</v>
+        <v>6103.696445845309</v>
       </c>
       <c r="S5">
-        <v>0.03278857377703467</v>
+        <v>0.03412479473382744</v>
       </c>
       <c r="T5">
-        <v>0.03278857377703467</v>
+        <v>0.03412479473382744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>301.485676204054</v>
+        <v>301.5732116666666</v>
       </c>
       <c r="H6">
-        <v>301.485676204054</v>
+        <v>904.7196349999999</v>
       </c>
       <c r="I6">
-        <v>0.9540350025967437</v>
+        <v>0.950473488836183</v>
       </c>
       <c r="J6">
-        <v>0.9540350025967437</v>
+        <v>0.9504734888361831</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>13351.97703358317</v>
+        <v>13356.69553858496</v>
       </c>
       <c r="R6">
-        <v>13351.97703358317</v>
+        <v>120210.2598472647</v>
       </c>
       <c r="S6">
-        <v>0.6960444494253336</v>
+        <v>0.6720764177222861</v>
       </c>
       <c r="T6">
-        <v>0.6960444494253336</v>
+        <v>0.6720764177222861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>301.485676204054</v>
+        <v>301.5732116666666</v>
       </c>
       <c r="H7">
-        <v>301.485676204054</v>
+        <v>904.7196349999999</v>
       </c>
       <c r="I7">
-        <v>0.9540350025967437</v>
+        <v>0.950473488836183</v>
       </c>
       <c r="J7">
-        <v>0.9540350025967437</v>
+        <v>0.9504734888361831</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>4319.970742204341</v>
+        <v>4854.612270406817</v>
       </c>
       <c r="R7">
-        <v>4319.970742204341</v>
+        <v>43691.51043366135</v>
       </c>
       <c r="S7">
-        <v>0.2252019793943753</v>
+        <v>0.2442722763800695</v>
       </c>
       <c r="T7">
-        <v>0.2252019793943753</v>
+        <v>0.2442722763800696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.466044324589663</v>
+        <v>0.1133353333333333</v>
       </c>
       <c r="H8">
-        <v>0.466044324589663</v>
+        <v>0.340006</v>
       </c>
       <c r="I8">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="J8">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>0.9722807082374398</v>
+        <v>0.2548725021151111</v>
       </c>
       <c r="R8">
-        <v>0.9722807082374398</v>
+        <v>2.293852519036</v>
       </c>
       <c r="S8">
-        <v>5.068542198281386E-05</v>
+        <v>1.282456410738752E-05</v>
       </c>
       <c r="T8">
-        <v>5.068542198281386E-05</v>
+        <v>1.282456410738752E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.466044324589663</v>
+        <v>0.1133353333333333</v>
       </c>
       <c r="H9">
-        <v>0.466044324589663</v>
+        <v>0.340006</v>
       </c>
       <c r="I9">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="J9">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>20.6398300473198</v>
+        <v>5.01962867567489</v>
       </c>
       <c r="R9">
-        <v>20.6398300473198</v>
+        <v>45.17665808107401</v>
       </c>
       <c r="S9">
-        <v>0.001075963440124627</v>
+        <v>0.0002525755003472249</v>
       </c>
       <c r="T9">
-        <v>0.001075963440124627</v>
+        <v>0.0002525755003472249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.466044324589663</v>
+        <v>0.1133353333333333</v>
       </c>
       <c r="H10">
-        <v>0.466044324589663</v>
+        <v>0.340006</v>
       </c>
       <c r="I10">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="J10">
-        <v>0.001474771883089941</v>
+        <v>0.000357200923405664</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>6.677922056353585</v>
+        <v>1.824429619693111</v>
       </c>
       <c r="R10">
-        <v>6.677922056353585</v>
+        <v>16.419866577238</v>
       </c>
       <c r="S10">
-        <v>0.0003481230209824993</v>
+        <v>9.180085895105164E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003481230209824993</v>
+        <v>9.180085895105165E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.40148163001615</v>
+        <v>0.8004729999999999</v>
       </c>
       <c r="H11">
-        <v>2.40148163001615</v>
+        <v>2.401419</v>
       </c>
       <c r="I11">
-        <v>0.007599357826797086</v>
+        <v>0.00252286455028413</v>
       </c>
       <c r="J11">
-        <v>0.007599357826797086</v>
+        <v>0.002522864550284131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>5.010069078959647</v>
+        <v>1.800131965779333</v>
       </c>
       <c r="R11">
-        <v>5.010069078959647</v>
+        <v>16.201187692014</v>
       </c>
       <c r="S11">
-        <v>0.0002611771099423104</v>
+        <v>9.057826013128713E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002611771099423104</v>
+        <v>9.057826013128714E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.40148163001615</v>
+        <v>0.8004729999999999</v>
       </c>
       <c r="H12">
-        <v>2.40148163001615</v>
+        <v>2.401419</v>
       </c>
       <c r="I12">
-        <v>0.007599357826797086</v>
+        <v>0.00252286455028413</v>
       </c>
       <c r="J12">
-        <v>0.007599357826797086</v>
+        <v>0.002522864550284131</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>106.355061289364</v>
+        <v>35.45299693155567</v>
       </c>
       <c r="R12">
-        <v>106.355061289364</v>
+        <v>319.076972384001</v>
       </c>
       <c r="S12">
-        <v>0.00554433623519248</v>
+        <v>0.001783908535344471</v>
       </c>
       <c r="T12">
-        <v>0.00554433623519248</v>
+        <v>0.001783908535344471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8004729999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.401419</v>
+      </c>
+      <c r="I13">
+        <v>0.00252286455028413</v>
+      </c>
+      <c r="J13">
+        <v>0.002522864550284131</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N13">
+        <v>48.292873</v>
+      </c>
+      <c r="O13">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P13">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q13">
+        <v>12.88571364297633</v>
+      </c>
+      <c r="R13">
+        <v>115.971422786787</v>
+      </c>
+      <c r="S13">
+        <v>0.0006483777548083723</v>
+      </c>
+      <c r="T13">
+        <v>0.0006483777548083725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.40148163001615</v>
-      </c>
-      <c r="H13">
-        <v>2.40148163001615</v>
-      </c>
-      <c r="I13">
-        <v>0.007599357826797086</v>
-      </c>
-      <c r="J13">
-        <v>0.007599357826797086</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="N13">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="O13">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="P13">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="Q13">
-        <v>34.41069078382788</v>
-      </c>
-      <c r="R13">
-        <v>34.41069078382788</v>
-      </c>
-      <c r="S13">
-        <v>0.001793844481662296</v>
-      </c>
-      <c r="T13">
-        <v>0.001793844481662296</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.466604</v>
+      </c>
+      <c r="H14">
+        <v>7.399812</v>
+      </c>
+      <c r="I14">
+        <v>0.007774038338818471</v>
+      </c>
+      <c r="J14">
+        <v>0.007774038338818472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N14">
+        <v>6.746506</v>
+      </c>
+      <c r="O14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q14">
+        <v>5.546986228541333</v>
+      </c>
+      <c r="R14">
+        <v>49.922876056872</v>
+      </c>
+      <c r="S14">
+        <v>0.0002791108491515309</v>
+      </c>
+      <c r="T14">
+        <v>0.0002791108491515309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.466604</v>
+      </c>
+      <c r="H15">
+        <v>7.399812</v>
+      </c>
+      <c r="I15">
+        <v>0.007774038338818471</v>
+      </c>
+      <c r="J15">
+        <v>0.007774038338818472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N15">
+        <v>132.870179</v>
+      </c>
+      <c r="O15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q15">
+        <v>109.2460383340387</v>
+      </c>
+      <c r="R15">
+        <v>983.214345006348</v>
+      </c>
+      <c r="S15">
+        <v>0.005496994812960355</v>
+      </c>
+      <c r="T15">
+        <v>0.005496994812960355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.466604</v>
+      </c>
+      <c r="H16">
+        <v>7.399812</v>
+      </c>
+      <c r="I16">
+        <v>0.007774038338818471</v>
+      </c>
+      <c r="J16">
+        <v>0.007774038338818472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.292873</v>
+      </c>
+      <c r="O16">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P16">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q16">
+        <v>39.70646457109733</v>
+      </c>
+      <c r="R16">
+        <v>357.358181139876</v>
+      </c>
+      <c r="S16">
+        <v>0.001997932676706585</v>
+      </c>
+      <c r="T16">
+        <v>0.001997932676706586</v>
       </c>
     </row>
   </sheetData>
